--- a/ProjectTracking.xlsx
+++ b/ProjectTracking.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UML\BTL\UML_Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
   </bookViews>
   <sheets>
-    <sheet name="ProjectName" sheetId="1" r:id="rId1"/>
+    <sheet name="QLVPP" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProjectName!$A$1:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QLVPP!$A$1:$K$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -730,8 +730,8 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O51" sqref="O51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
